--- a/tests/fixtures/test_new_features_model.xlsx
+++ b/tests/fixtures/test_new_features_model.xlsx
@@ -7,30 +7,30 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="993" visibility="visible" windowHeight="13965" windowWidth="28695"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!_Table of contents" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Model" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Taxon" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Environment" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Submodels" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Compartments" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Species types" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Species" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Initial species concentrations" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Observables" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Functions" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Reactions" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Rate laws" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!dFBA objectives" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!dFBA objective reactions" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!dFBA objective species" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Parameters" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Stop conditions" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Observations" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Observation sets" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Conclusions" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!References" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Authors" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Changes" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!_Table of contents" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Model" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Taxon" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Environment" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Submodels" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Compartments" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Species types" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Species" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Init species concentrations" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Observables" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Functions" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Reactions" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Rate laws" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!dFBA objectives" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!dFBA objective reactions" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!dFBA objective species" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Parameters" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Stop conditions" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Observations" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Observation sets" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Conclusions" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!References" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Authors" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Changes" sheetId="24" state="visible" r:id="rId24"/>
   </sheets>
   <definedNames>
     <definedName localSheetId="5" name="_FilterDatabase_0">Compartments!$A$2:$G$4</definedName>
@@ -53,12 +53,12 @@
     <definedName localSheetId="21" name="_FilterDatabase_0_0">References!$A$1:$D$1</definedName>
     <definedName localSheetId="21" name="_FilterDatabase_0_0_0">References!$A$1:$D$1</definedName>
     <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0">References!$A$1:$D$1</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'!_Table of contents'!$A$1:$C$24</definedName>
-    <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">'!Compartments'!$A$2:$G$4</definedName>
-    <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">'!Species types'!$A$2:$K$8</definedName>
-    <definedName hidden="1" localSheetId="11" name="_xlnm._FilterDatabase">'!Reactions'!$A$2:$D$6</definedName>
-    <definedName hidden="1" localSheetId="16" name="_xlnm._FilterDatabase">'!Parameters'!$A$1:$F$11</definedName>
-    <definedName hidden="1" localSheetId="21" name="_xlnm._FilterDatabase">'!References'!$A$1:$D$1</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'!!_Table of contents'!$A$1:$C$24</definedName>
+    <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">'!!Compartments'!$A$2:$G$4</definedName>
+    <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">'!!Species types'!$A$2:$K$8</definedName>
+    <definedName hidden="1" localSheetId="11" name="_xlnm._FilterDatabase">'!!Reactions'!$A$2:$D$6</definedName>
+    <definedName hidden="1" localSheetId="16" name="_xlnm._FilterDatabase">'!!Parameters'!$A$1:$F$11</definedName>
+    <definedName hidden="1" localSheetId="21" name="_xlnm._FilterDatabase">'!!References'!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
@@ -687,14 +687,14 @@
     <xf applyAlignment="1" borderId="3" fillId="0" fontId="16" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="41"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="9" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="42"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
@@ -704,7 +704,7 @@
     <xf applyAlignment="1" borderId="3" fillId="0" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="43"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
     <xf applyAlignment="1" borderId="2" fillId="5" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1122,7 +1122,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
@@ -1139,42 +1139,38 @@
     <row r="1" s="14">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Schema' ObjTablesVersion='0.0.8'</t>
+          <t>!!!ObjTables ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
     <row r="2" s="14">
-      <c r="A2" s="28" t="inlineStr">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>!!ObjTables Type='Schema' ObjTablesVersion='0.0.8'</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" s="14">
+      <c r="A3" s="28" t="inlineStr">
         <is>
           <t>!Table</t>
         </is>
       </c>
-      <c r="B2" s="28" t="inlineStr">
+      <c r="B3" s="28" t="inlineStr">
         <is>
           <t>!Description</t>
         </is>
       </c>
-      <c r="C2" s="28" t="inlineStr">
+      <c r="C3" s="28" t="inlineStr">
         <is>
           <t>!Number of objects</t>
         </is>
-      </c>
-    </row>
-    <row r="3" s="14">
-      <c r="A3" s="29" t="inlineStr">
-        <is>
-          <t>Model</t>
-        </is>
-      </c>
-      <c r="B3" s="29" t="n"/>
-      <c r="C3" s="29" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="4" s="14">
       <c r="A4" s="29" t="inlineStr">
         <is>
-          <t>Taxon</t>
+          <t>Model</t>
         </is>
       </c>
       <c r="B4" s="29" t="n"/>
@@ -1185,7 +1181,7 @@
     <row r="5" s="14">
       <c r="A5" s="29" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Taxon</t>
         </is>
       </c>
       <c r="B5" s="29" t="n"/>
@@ -1196,220 +1192,231 @@
     <row r="6" s="14">
       <c r="A6" s="29" t="inlineStr">
         <is>
-          <t>Submodels</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B6" s="29" t="n"/>
       <c r="C6" s="29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" s="14">
       <c r="A7" s="29" t="inlineStr">
         <is>
-          <t>Compartments</t>
+          <t>Submodels</t>
         </is>
       </c>
       <c r="B7" s="29" t="n"/>
       <c r="C7" s="29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" s="14">
       <c r="A8" s="29" t="inlineStr">
         <is>
-          <t>Species types</t>
+          <t>Compartments</t>
         </is>
       </c>
       <c r="B8" s="29" t="n"/>
       <c r="C8" s="29" t="n">
-        <v>143</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" s="14">
       <c r="A9" s="29" t="inlineStr">
         <is>
-          <t>Species</t>
+          <t>Species types</t>
         </is>
       </c>
       <c r="B9" s="29" t="n"/>
       <c r="C9" s="29" t="n">
-        <v>175</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" s="14">
       <c r="A10" s="29" t="inlineStr">
         <is>
-          <t>Initial species concentrations</t>
+          <t>Species</t>
         </is>
       </c>
       <c r="B10" s="29" t="n"/>
       <c r="C10" s="29" t="n">
-        <v>125</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" s="14">
       <c r="A11" s="29" t="inlineStr">
         <is>
-          <t>Observables</t>
+          <t>Initial species concentrations</t>
         </is>
       </c>
       <c r="B11" s="29" t="n"/>
       <c r="C11" s="29" t="n">
-        <v>4</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" s="14">
       <c r="A12" s="29" t="inlineStr">
         <is>
-          <t>Functions</t>
+          <t>Observables</t>
         </is>
       </c>
       <c r="B12" s="29" t="n"/>
       <c r="C12" s="29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" s="14">
       <c r="A13" s="29" t="inlineStr">
         <is>
-          <t>Reactions</t>
+          <t>Functions</t>
         </is>
       </c>
       <c r="B13" s="29" t="n"/>
       <c r="C13" s="29" t="n">
-        <v>175</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" s="14">
       <c r="A14" s="29" t="inlineStr">
         <is>
-          <t>Rate laws</t>
+          <t>Reactions</t>
         </is>
       </c>
       <c r="B14" s="29" t="n"/>
       <c r="C14" s="29" t="n">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" s="14">
       <c r="A15" s="29" t="inlineStr">
         <is>
-          <t>dFBA objectives</t>
+          <t>Rate laws</t>
         </is>
       </c>
       <c r="B15" s="29" t="n"/>
       <c r="C15" s="29" t="n">
-        <v>1</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" s="14">
       <c r="A16" s="29" t="inlineStr">
         <is>
-          <t>dFBA objective reactions</t>
+          <t>dFBA objectives</t>
         </is>
       </c>
       <c r="B16" s="29" t="n"/>
       <c r="C16" s="29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" s="14">
       <c r="A17" s="29" t="inlineStr">
         <is>
-          <t>dFBA objective species</t>
+          <t>dFBA objective reactions</t>
         </is>
       </c>
       <c r="B17" s="29" t="n"/>
       <c r="C17" s="29" t="n">
-        <v>35</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" s="14">
       <c r="A18" s="29" t="inlineStr">
         <is>
-          <t>Parameters</t>
+          <t>dFBA objective species</t>
         </is>
       </c>
       <c r="B18" s="29" t="n"/>
       <c r="C18" s="29" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" s="14">
       <c r="A19" s="29" t="inlineStr">
         <is>
-          <t>Stop conditions</t>
+          <t>Parameters</t>
         </is>
       </c>
       <c r="B19" s="29" t="n"/>
       <c r="C19" s="29" t="n">
-        <v>2</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" s="14">
       <c r="A20" s="29" t="inlineStr">
         <is>
-          <t>Observations</t>
+          <t>Stop conditions</t>
         </is>
       </c>
       <c r="B20" s="29" t="n"/>
       <c r="C20" s="29" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" s="14">
       <c r="A21" s="29" t="inlineStr">
         <is>
-          <t>Observation sets</t>
+          <t>Observations</t>
         </is>
       </c>
       <c r="B21" s="29" t="n"/>
-      <c r="C21" s="30" t="n">
-        <v>0</v>
+      <c r="C21" s="29" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="22" s="14">
       <c r="A22" s="29" t="inlineStr">
         <is>
-          <t>Conclusions</t>
+          <t>Observation sets</t>
         </is>
       </c>
       <c r="B22" s="29" t="n"/>
-      <c r="C22" s="29" t="n">
-        <v>2</v>
+      <c r="C22" s="30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23" s="14">
       <c r="A23" s="29" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Conclusions</t>
         </is>
       </c>
       <c r="B23" s="29" t="n"/>
       <c r="C23" s="29" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" s="14">
       <c r="A24" s="29" t="inlineStr">
         <is>
-          <t>Authors</t>
+          <t>References</t>
         </is>
       </c>
       <c r="B24" s="29" t="n"/>
       <c r="C24" s="29" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="29" t="inlineStr">
         <is>
-          <t>Changes</t>
+          <t>Authors</t>
         </is>
       </c>
       <c r="B25" s="29" t="n"/>
       <c r="C25" s="29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="29" t="inlineStr">
+        <is>
+          <t>Changes</t>
+        </is>
+      </c>
+      <c r="B26" s="29" t="n"/>
+      <c r="C26" s="29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1468,7 +1475,7 @@
     <row r="1" s="14">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Observable' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Observable' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -1560,7 +1567,7 @@
     <row r="1" s="14">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Function' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Function' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1672,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AML7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="D2" xSplit="1" ySplit="2"/>
@@ -1693,7 +1700,7 @@
     <row r="1" s="14">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Reaction' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Reaction' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -1951,7 +1958,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
@@ -1975,7 +1982,7 @@
     <row r="1" s="14">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='RateLaw' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='RateLaw' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -2178,7 +2185,6 @@
       </c>
       <c r="M7" s="9" t="n"/>
     </row>
-    <row r="8"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
   <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
@@ -2209,7 +2215,7 @@
     <row r="1" s="14">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='DfbaObjective' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='DfbaObjective' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -2339,7 +2345,7 @@
     <row r="1" s="14">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='DfbaObjReaction' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='DfbaObjReaction' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -2471,7 +2477,7 @@
     <row r="1" s="14">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='DfbaObjSpecies' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='DfbaObjSpecies' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -2607,7 +2613,7 @@
     <row customFormat="1" r="1" s="3">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Parameter' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Parameter' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -2890,7 +2896,7 @@
     <row r="1" s="14">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='StopCondition' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='StopCondition' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -2979,7 +2985,7 @@
     <row r="1" s="14">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Observation' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Observation' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -3158,7 +3164,7 @@
     <row r="1" s="14">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Model' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Model' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -3325,7 +3331,7 @@
     <row customHeight="1" ht="15.1" r="1" s="14">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='ObservationSet' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='ObservationSet' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -3409,7 +3415,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Conclusion' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Conclusion' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -3571,7 +3577,7 @@
     <row customFormat="1" r="1" s="3">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Reference' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Reference' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -3699,7 +3705,7 @@
     <row r="1" s="14">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Author' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Author' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -3794,7 +3800,7 @@
     <row r="1" s="14">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Change' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Change' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -3913,7 +3919,7 @@
     <row r="1" s="14">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Taxon' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Taxon' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -4010,7 +4016,7 @@
     <row r="1" s="14">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Environment' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Environment' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -4113,7 +4119,7 @@
     <row customFormat="1" customHeight="1" ht="15" r="1" s="3">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Submodel' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Submodel' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -4209,7 +4215,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:XFD5"/>
+  <dimension ref="A1:AMR5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="2"/>
@@ -4234,7 +4240,7 @@
     <row r="1" s="14">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Compartment' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Compartment' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5580,7 +5586,7 @@
     <row r="1" s="14">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='SpeciesType' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='SpeciesType' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5855,7 +5861,7 @@
     <row r="1" s="14">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Species' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Species' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -6137,7 +6143,7 @@
     <row r="1" s="14">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='DistributionInitConcentration' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='DistributionInitConcentration' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>

--- a/tests/fixtures/test_new_features_model.xlsx
+++ b/tests/fixtures/test_new_features_model.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="993" visibility="visible" windowHeight="13965" windowWidth="28695"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28695" windowHeight="13965" tabRatio="993" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!_Table of contents" sheetId="1" state="visible" r:id="rId1"/>
@@ -33,32 +33,32 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Changes" sheetId="24" state="visible" r:id="rId24"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="5" name="_FilterDatabase_0">Compartments!$A$2:$G$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0">Compartments!$A$2:$G$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0">Compartments!$A$2:$G$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0">Compartments!$A$2:$G$4</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0">'Species types'!$A$2:$K$7</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0">'Species types'!$A$2:$K$7</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0">'Species types'!$A$2:$K$7</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0">'Species types'!$A$2:$K$7</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0">Reactions!$A$2:$D$6</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0">Reactions!$A$2:$D$6</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0">Reactions!$A$2:$D$6</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0">Reactions!$A$2:$D$6</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0">Parameters!$A$1:$F$1</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0">Parameters!$A$1:$F$1</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0">Parameters!$A$1:$F$1</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0">Parameters!$A$1:$F$1</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0">References!$A$1:$D$1</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0">References!$A$1:$D$1</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0">References!$A$1:$D$1</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0">References!$A$1:$D$1</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'!!_Table of contents'!$A$1:$C$24</definedName>
-    <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">'!!Compartments'!$A$2:$G$4</definedName>
-    <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">'!!Species types'!$A$2:$K$8</definedName>
-    <definedName hidden="1" localSheetId="11" name="_xlnm._FilterDatabase">'!!Reactions'!$A$2:$D$6</definedName>
-    <definedName hidden="1" localSheetId="16" name="_xlnm._FilterDatabase">'!!Parameters'!$A$1:$F$11</definedName>
-    <definedName hidden="1" localSheetId="21" name="_xlnm._FilterDatabase">'!!References'!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="5">Compartments!$A$2:$G$4</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="5">Compartments!$A$2:$G$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="5">Compartments!$A$2:$G$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="5">Compartments!$A$2:$G$4</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="6">'Species types'!$A$2:$K$7</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="6">'Species types'!$A$2:$K$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="6">'Species types'!$A$2:$K$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="6">'Species types'!$A$2:$K$7</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="11">Reactions!$A$2:$D$6</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="11">Reactions!$A$2:$D$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="11">Reactions!$A$2:$D$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="11">Reactions!$A$2:$D$6</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="16">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="16">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="16">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="16">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="21">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="21">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="21">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="21">References!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'!!_Table of contents'!$A$1:$C$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'!!Compartments'!$A$2:$G$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'!!Species types'!$A$2:$K$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'!!Reactions'!$A$2:$D$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'!!Parameters'!$A$1:$F$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">'!!References'!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
@@ -67,9 +67,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;" numFmtId="164"/>
-    <numFmt formatCode="0.000E+00" numFmtId="165"/>
-    <numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" numFmtId="166"/>
+    <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="165" formatCode="0.000E+00"/>
+    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -582,282 +582,282 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="34" fontId="11" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="8" numFmtId="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="11" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="11" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="8" numFmtId="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="8" numFmtId="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="11" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="11" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="8" numFmtId="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="11" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="23" numFmtId="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="33" fontId="8" numFmtId="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="11" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="11" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="8" numFmtId="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="8" numFmtId="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="11" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="8" numFmtId="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="8" numFmtId="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="11" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="21" numFmtId="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="11" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="22" numFmtId="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="8" numFmtId="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="19" numFmtId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="16" fontId="18" numFmtId="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="166"/>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="8" numFmtId="0">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="12" fontId="4" numFmtId="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="31" fontId="24" numFmtId="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="9" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="20" numFmtId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="16" fontId="25" numFmtId="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="9" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="17" numFmtId="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="20" numFmtId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="16" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="8" numFmtId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="12" numFmtId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="2" fillId="5" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="11" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="33">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="11" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="35">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="35">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="35">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="35">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="11" pivotButton="0" quotePrefix="0" xfId="35">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="35">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="35">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="35">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="52" name="60% - Accent6" xfId="1"/>
-    <cellStyle builtinId="51" name="40% - Accent6" xfId="2"/>
-    <cellStyle builtinId="48" name="60% - Accent5" xfId="3"/>
-    <cellStyle builtinId="49" name="Accent6" xfId="4"/>
-    <cellStyle builtinId="47" name="40% - Accent5" xfId="5"/>
-    <cellStyle builtinId="46" name="20% - Accent5" xfId="6"/>
-    <cellStyle builtinId="44" name="60% - Accent4" xfId="7"/>
-    <cellStyle builtinId="45" name="Accent5" xfId="8"/>
-    <cellStyle builtinId="43" name="40% - Accent4" xfId="9"/>
-    <cellStyle builtinId="41" name="Accent4" xfId="10"/>
-    <cellStyle builtinId="24" name="Linked Cell" xfId="11"/>
-    <cellStyle builtinId="39" name="40% - Accent3" xfId="12"/>
-    <cellStyle builtinId="36" name="60% - Accent2" xfId="13"/>
-    <cellStyle builtinId="37" name="Accent3" xfId="14"/>
-    <cellStyle builtinId="35" name="40% - Accent2" xfId="15"/>
-    <cellStyle builtinId="34" name="20% - Accent2" xfId="16"/>
-    <cellStyle builtinId="33" name="Accent2" xfId="17"/>
-    <cellStyle builtinId="31" name="40% - Accent1" xfId="18"/>
-    <cellStyle builtinId="30" name="20% - Accent1" xfId="19"/>
-    <cellStyle builtinId="29" name="Accent1" xfId="20"/>
-    <cellStyle builtinId="28" name="Neutral" xfId="21"/>
-    <cellStyle builtinId="32" name="60% - Accent1" xfId="22"/>
-    <cellStyle builtinId="27" name="Bad" xfId="23"/>
-    <cellStyle builtinId="42" name="20% - Accent4" xfId="24"/>
-    <cellStyle builtinId="25" name="Total" xfId="25"/>
-    <cellStyle builtinId="21" name="Output" xfId="26"/>
-    <cellStyle builtinId="4" name="Currency" xfId="27"/>
-    <cellStyle builtinId="38" name="20% - Accent3" xfId="28"/>
-    <cellStyle builtinId="10" name="Note" xfId="29"/>
-    <cellStyle builtinId="20" name="Input" xfId="30"/>
-    <cellStyle builtinId="19" name="Heading 4" xfId="31"/>
-    <cellStyle builtinId="22" name="Calculation" xfId="32"/>
-    <cellStyle builtinId="26" name="Good" xfId="33"/>
-    <cellStyle builtinId="18" name="Heading 3" xfId="34"/>
-    <cellStyle builtinId="53" name="CExplanatory Text" xfId="35"/>
-    <cellStyle builtinId="16" name="Heading 1" xfId="36"/>
-    <cellStyle builtinId="6" name="Comma [0]" xfId="37"/>
-    <cellStyle builtinId="50" name="20% - Accent6" xfId="38"/>
-    <cellStyle builtinId="15" name="Title" xfId="39"/>
-    <cellStyle builtinId="7" name="Currency [0]" xfId="40"/>
-    <cellStyle builtinId="11" name="Warning Text" xfId="41"/>
-    <cellStyle builtinId="9" name="Followed Hyperlink" xfId="42"/>
-    <cellStyle builtinId="17" name="Heading 2" xfId="43"/>
-    <cellStyle builtinId="3" name="Comma" xfId="44"/>
-    <cellStyle builtinId="23" name="Check Cell" xfId="45"/>
-    <cellStyle builtinId="40" name="60% - Accent3" xfId="46"/>
-    <cellStyle builtinId="5" name="Percent" xfId="47"/>
-    <cellStyle builtinId="8" name="Hyperlink" xfId="48"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -1125,28 +1125,28 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A21" pane="bottomLeft" sqref="A19:A21"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A19:A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="3" min="1" style="27" width="15.7083333333333"/>
-    <col customWidth="1" hidden="1" max="16384" min="4" style="27" width="9"/>
+    <col width="15.7083333333333" customWidth="1" style="27" min="1" max="3"/>
+    <col hidden="1" width="9" customWidth="1" style="27" min="4" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" s="14">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!!ObjTables ObjTablesVersion='0.0.8'</t>
+          <t>!!!ObjTables objTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
     <row r="2" s="14">
       <c r="A2" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Schema' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Schema' objTablesVersion='0.0.8' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -1423,30 +1423,30 @@
   </sheetData>
   <autoFilter ref="A1:C24"/>
   <hyperlinks>
-    <hyperlink display="Model" location="'Model'!A1" ref="A2" tooltip="Click to view model"/>
-    <hyperlink display="Taxon" location="'Taxon'!A1" ref="A3" tooltip="Click to view taxon"/>
-    <hyperlink display="Environment" location="'Environment'!A1" ref="A4" tooltip="Click to view environment"/>
-    <hyperlink display="Submodels" location="'Submodels'!A1" ref="A5" tooltip="Click to view submodels"/>
-    <hyperlink display="Compartments" location="'Compartments'!A1" ref="A6" tooltip="Click to view compartments"/>
-    <hyperlink display="Species types" location="'Species types'!A1" ref="A7" tooltip="Click to view species types"/>
-    <hyperlink display="Species" location="'Species'!A1" ref="A8" tooltip="Click to view species"/>
-    <hyperlink display="Initial species concentrations" location="'Initial species concentrations'!A1" ref="A9" tooltip="Click to view initial species concentrations"/>
-    <hyperlink display="Observables" location="'Observables'!A1" ref="A10" tooltip="Click to view observables"/>
-    <hyperlink display="Functions" location="'Functions'!A1" ref="A11" tooltip="Click to view functions"/>
-    <hyperlink display="Reactions" location="'Reactions'!A1" ref="A12" tooltip="Click to view reactions"/>
-    <hyperlink display="Rate laws" location="'Rate laws'!A1" ref="A13" tooltip="Click to view rate laws"/>
-    <hyperlink display="dFBA objectives" location="'dFBA objectives'!A1" ref="A14" tooltip="Click to view dfba objectives"/>
-    <hyperlink display="dFBA objective reactions" location="'dFBA objective reactions'!A1" ref="A15" tooltip="Click to view dfba objective reactions"/>
-    <hyperlink display="dFBA objective species" location="'dFBA objective species'!A1" ref="A16" tooltip="Click to view dfba objective species"/>
-    <hyperlink display="Parameters" location="'Parameters'!A1" ref="A17" tooltip="Click to view parameters"/>
-    <hyperlink display="Stop conditions" location="'Stop conditions'!A1" ref="A18" tooltip="Click to view stop conditions"/>
-    <hyperlink display="Observations" location="'Evidence'!A1" ref="A19" tooltip="Click to view evidence"/>
-    <hyperlink display="Conclusions" location="'Interpretations'!A1" ref="A21" tooltip="Click to view interpretations"/>
-    <hyperlink display="References" location="'References'!A1" ref="A22" tooltip="Click to view references"/>
-    <hyperlink display="Authors" location="'Authors'!A1" ref="A23" tooltip="Click to view authors"/>
-    <hyperlink display="Changes" location="'Changes'!A1" ref="A24" tooltip="Click to view changes"/>
+    <hyperlink ref="A2" location="'Model'!A1" tooltip="Click to view model" display="Model"/>
+    <hyperlink ref="A3" location="'Taxon'!A1" tooltip="Click to view taxon" display="Taxon"/>
+    <hyperlink ref="A4" location="'Environment'!A1" tooltip="Click to view environment" display="Environment"/>
+    <hyperlink ref="A5" location="'Submodels'!A1" tooltip="Click to view submodels" display="Submodels"/>
+    <hyperlink ref="A6" location="'Compartments'!A1" tooltip="Click to view compartments" display="Compartments"/>
+    <hyperlink ref="A7" location="'Species types'!A1" tooltip="Click to view species types" display="Species types"/>
+    <hyperlink ref="A8" location="'Species'!A1" tooltip="Click to view species" display="Species"/>
+    <hyperlink ref="A9" location="'Initial species concentrations'!A1" tooltip="Click to view initial species concentrations" display="Initial species concentrations"/>
+    <hyperlink ref="A10" location="'Observables'!A1" tooltip="Click to view observables" display="Observables"/>
+    <hyperlink ref="A11" location="'Functions'!A1" tooltip="Click to view functions" display="Functions"/>
+    <hyperlink ref="A12" location="'Reactions'!A1" tooltip="Click to view reactions" display="Reactions"/>
+    <hyperlink ref="A13" location="'Rate laws'!A1" tooltip="Click to view rate laws" display="Rate laws"/>
+    <hyperlink ref="A14" location="'dFBA objectives'!A1" tooltip="Click to view dfba objectives" display="dFBA objectives"/>
+    <hyperlink ref="A15" location="'dFBA objective reactions'!A1" tooltip="Click to view dfba objective reactions" display="dFBA objective reactions"/>
+    <hyperlink ref="A16" location="'dFBA objective species'!A1" tooltip="Click to view dfba objective species" display="dFBA objective species"/>
+    <hyperlink ref="A17" location="'Parameters'!A1" tooltip="Click to view parameters" display="Parameters"/>
+    <hyperlink ref="A18" location="'Stop conditions'!A1" tooltip="Click to view stop conditions" display="Stop conditions"/>
+    <hyperlink ref="A19" location="'Evidence'!A1" tooltip="Click to view evidence" display="Observations"/>
+    <hyperlink ref="A21" location="'Interpretations'!A1" tooltip="Click to view interpretations" display="Conclusions"/>
+    <hyperlink ref="A22" location="'References'!A1" tooltip="Click to view references" display="References"/>
+    <hyperlink ref="A23" location="'Authors'!A1" tooltip="Click to view authors" display="Authors"/>
+    <hyperlink ref="A24" location="'Changes'!A1" tooltip="Click to view changes" display="Changes"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1459,23 +1459,23 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B5" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="G1" pane="bottomRight" sqref="G1"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" max="1026" min="1" style="26" width="9.108333333333331"/>
-    <col customWidth="1" max="16384" min="1027" style="26" width="9"/>
+    <col width="9.108333333333331" customWidth="1" style="26" min="1" max="1026"/>
+    <col width="9" customWidth="1" style="26" min="1027" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" s="14">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Observable' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='Observable' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -1527,8 +1527,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
@@ -1549,25 +1549,25 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="G1" pane="bottomRight" sqref="G1"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col customWidth="1" max="2" min="1" style="26" width="9.108333333333331"/>
-    <col customWidth="1" max="3" min="3" style="26" width="11"/>
-    <col customWidth="1" max="1026" min="4" style="26" width="9.108333333333331"/>
-    <col customWidth="1" max="16384" min="1027" style="26" width="9"/>
+    <col width="9.108333333333331" customWidth="1" style="26" min="1" max="2"/>
+    <col width="11" customWidth="1" style="26" min="3" max="3"/>
+    <col width="9.108333333333331" customWidth="1" style="26" min="4" max="1026"/>
+    <col width="9" customWidth="1" style="26" min="1027" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" s="14">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Function' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='Function' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -1653,8 +1653,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
@@ -1675,36 +1675,36 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="D2" xSplit="1" ySplit="2"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="G1" pane="bottomRight" sqref="G1:I1"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="16" width="17.8916666666667"/>
-    <col customWidth="1" max="2" min="2" style="16" width="25.6"/>
-    <col customWidth="1" max="3" min="3" style="16" width="14.8916666666667"/>
-    <col customWidth="1" max="4" min="4" style="16" width="46.75"/>
-    <col customWidth="1" max="6" min="5" style="16" width="8.78333333333333"/>
-    <col customWidth="1" max="8" min="7" style="17" width="8.78333333333333"/>
-    <col customWidth="1" max="9" min="9" style="16" width="11.7833333333333"/>
-    <col customWidth="1" max="10" min="10" style="16" width="11.0333333333333"/>
-    <col customWidth="1" max="1023" min="11" style="16" width="8.78333333333333"/>
-    <col customWidth="1" max="1027" min="1024" style="14" width="8.78333333333333"/>
-    <col customWidth="1" max="16384" min="1028" style="14" width="9"/>
+    <col width="17.8916666666667" customWidth="1" style="16" min="1" max="1"/>
+    <col width="25.6" customWidth="1" style="16" min="2" max="2"/>
+    <col width="14.8916666666667" customWidth="1" style="16" min="3" max="3"/>
+    <col width="46.75" customWidth="1" style="16" min="4" max="4"/>
+    <col width="8.78333333333333" customWidth="1" style="16" min="5" max="6"/>
+    <col width="8.78333333333333" customWidth="1" style="17" min="7" max="8"/>
+    <col width="11.7833333333333" customWidth="1" style="16" min="9" max="9"/>
+    <col width="11.0333333333333" customWidth="1" style="16" min="10" max="10"/>
+    <col width="8.78333333333333" customWidth="1" style="16" min="11" max="1023"/>
+    <col width="8.78333333333333" customWidth="1" style="14" min="1024" max="1027"/>
+    <col width="9" customWidth="1" style="14" min="1028" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" s="14">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Reaction' ObjTablesVersion='0.0.8'</t>
-        </is>
-      </c>
-    </row>
-    <row customFormat="1" r="2" s="15">
+          <t>!!ObjTables type='Data' id='Reaction' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" customFormat="1" s="15">
       <c r="A2" s="15" t="n"/>
       <c r="B2" s="15" t="n"/>
       <c r="C2" s="15" t="n"/>
@@ -1947,8 +1947,8 @@
   <mergeCells count="1">
     <mergeCell ref="G2:I2"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -1961,28 +1961,28 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="E2" pane="bottomRight" sqref="E2:E6"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="6"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="26" width="17.75"/>
-    <col customWidth="1" max="2" min="2" style="26" width="10.6"/>
-    <col customWidth="1" max="3" min="3" style="26" width="9.125"/>
-    <col customWidth="1" max="5" min="4" style="26" width="10.6"/>
-    <col customWidth="1" max="6" min="6" style="26" width="41.375"/>
-    <col customWidth="1" max="1026" min="7" style="26" width="10.6"/>
-    <col customWidth="1" max="16384" min="1027" style="26" width="9"/>
+    <col width="17.75" customWidth="1" style="26" min="1" max="1"/>
+    <col width="10.6" customWidth="1" style="26" min="2" max="2"/>
+    <col width="9.125" customWidth="1" style="26" min="3" max="3"/>
+    <col width="10.6" customWidth="1" style="26" min="4" max="5"/>
+    <col width="41.375" customWidth="1" style="26" min="6" max="6"/>
+    <col width="10.6" customWidth="1" style="26" min="7" max="1026"/>
+    <col width="9" customWidth="1" style="26" min="1027" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" s="14">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='RateLaw' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='RateLaw' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -2186,8 +2186,8 @@
       <c r="M7" s="9" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -2200,22 +2200,22 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomRight" sqref="$A1:$XFD1"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col customWidth="1" max="16384" min="1" style="26" width="9"/>
+    <col width="9" customWidth="1" style="26" min="1" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" s="14">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='DfbaObjective' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='DfbaObjective' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -2314,7 +2314,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -2327,25 +2327,25 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="H1" pane="bottomRight" sqref="H1"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col customWidth="1" max="2" min="1" style="26" width="9.108333333333331"/>
-    <col customWidth="1" max="3" min="3" style="26" width="13.3916666666667"/>
-    <col customWidth="1" max="1026" min="4" style="26" width="9.108333333333331"/>
-    <col customWidth="1" max="16384" min="1027" style="26" width="9"/>
+    <col width="9.108333333333331" customWidth="1" style="26" min="1" max="2"/>
+    <col width="13.3916666666667" customWidth="1" style="26" min="3" max="3"/>
+    <col width="9.108333333333331" customWidth="1" style="26" min="4" max="1026"/>
+    <col width="9" customWidth="1" style="26" min="1027" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" s="14">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='DfbaObjReaction' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='DfbaObjReaction' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -2434,8 +2434,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
@@ -2456,28 +2456,28 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="I1" pane="bottomRight" sqref="I1"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="26" width="42"/>
-    <col customWidth="1" max="2" min="2" style="26" width="14.1416666666667"/>
-    <col customWidth="1" max="3" min="3" style="26" width="9.108333333333331"/>
-    <col customWidth="1" max="4" min="4" style="26" width="10"/>
-    <col customWidth="1" max="5" min="5" style="26" width="9.875"/>
-    <col customWidth="1" max="1026" min="6" style="26" width="9.108333333333331"/>
-    <col customWidth="1" max="16384" min="1027" style="10" width="9"/>
+    <col width="42" customWidth="1" style="26" min="1" max="1"/>
+    <col width="14.1416666666667" customWidth="1" style="26" min="2" max="2"/>
+    <col width="9.108333333333331" customWidth="1" style="26" min="3" max="3"/>
+    <col width="10" customWidth="1" style="26" min="4" max="4"/>
+    <col width="9.875" customWidth="1" style="26" min="5" max="5"/>
+    <col width="9.108333333333331" customWidth="1" style="26" min="6" max="1026"/>
+    <col width="9" customWidth="1" style="10" min="1027" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" s="14">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='DfbaObjSpecies' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='DfbaObjSpecies' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -2569,8 +2569,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
@@ -2591,29 +2591,29 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="C8" pane="bottomRight" sqref="C8"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="26" width="23.0333333333333"/>
-    <col customWidth="1" max="2" min="2" style="26" width="33.125"/>
-    <col customWidth="1" max="3" min="3" style="26" width="10.5"/>
-    <col customWidth="1" max="4" min="4" style="26" width="9.25"/>
-    <col customWidth="1" max="5" min="5" style="26" width="13.3916666666667"/>
-    <col customWidth="1" max="6" min="6" style="26" width="14.375"/>
-    <col customWidth="1" max="1026" min="7" style="26" width="8.78333333333333"/>
-    <col customWidth="1" max="16384" min="1027" style="4" width="9"/>
+    <col width="23.0333333333333" customWidth="1" style="26" min="1" max="1"/>
+    <col width="33.125" customWidth="1" style="26" min="2" max="2"/>
+    <col width="10.5" customWidth="1" style="26" min="3" max="3"/>
+    <col width="9.25" customWidth="1" style="26" min="4" max="4"/>
+    <col width="13.3916666666667" customWidth="1" style="26" min="5" max="5"/>
+    <col width="14.375" customWidth="1" style="26" min="6" max="6"/>
+    <col width="8.78333333333333" customWidth="1" style="26" min="7" max="1026"/>
+    <col width="9" customWidth="1" style="4" min="1027" max="16384"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="3">
+    <row r="1" customFormat="1" s="3">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Parameter' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='Parameter' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -2866,8 +2866,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F11"/>
-  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -2880,23 +2880,23 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="I7" pane="bottomRight" sqref="I7"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" max="1026" min="1" style="26" width="9.108333333333331"/>
-    <col customWidth="1" max="16384" min="1027" style="26" width="9"/>
+    <col width="9.108333333333331" customWidth="1" style="26" min="1" max="1026"/>
+    <col width="9" customWidth="1" style="26" min="1027" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" s="14">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='StopCondition' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='StopCondition' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -2948,8 +2948,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
@@ -2970,22 +2970,22 @@
   <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="2"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="Q1" pane="bottomRight" sqref="Q1:T1"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="Q1" sqref="Q1:T1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col customWidth="1" max="16384" min="1" style="26" width="9"/>
+    <col width="9" customWidth="1" style="26" min="1" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" s="14">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Observation' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='Observation' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -3135,7 +3135,7 @@
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="S2:T2"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -3148,23 +3148,23 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A8" pane="topRight" sqref="$A8:$XFD10"/>
+      <selection pane="topRight" activeCell="A8" sqref="$A8:$XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="26" width="10.6"/>
-    <col customWidth="1" max="2" min="2" style="26" width="14.8916666666667"/>
-    <col customWidth="1" max="1025" min="3" style="26" width="10.6"/>
-    <col customWidth="1" max="16384" min="1026" style="26" width="9"/>
+    <col width="10.6" customWidth="1" style="26" min="1" max="1"/>
+    <col width="14.8916666666667" customWidth="1" style="26" min="2" max="2"/>
+    <col width="10.6" customWidth="1" style="26" min="3" max="1025"/>
+    <col width="9" customWidth="1" style="26" min="1026" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" s="14">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Model' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='Model' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
     </row>
@@ -3298,10 +3298,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="https://github.com/org/repo" ref="B4" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" display="https://github.com/org/repo" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -3314,28 +3314,28 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="26" width="14"/>
-    <col customWidth="1" max="3" min="2" style="26" width="13.3916666666667"/>
-    <col customWidth="1" max="1017" min="4" style="26" width="9.108333333333331"/>
+    <col width="14" customWidth="1" style="26" min="1" max="1"/>
+    <col width="13.3916666666667" customWidth="1" style="26" min="2" max="3"/>
+    <col width="9.108333333333331" customWidth="1" style="26" min="4" max="1017"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.1" r="1" s="14">
+    <row r="1" ht="15.1" customHeight="1" s="14">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='ObservationSet' ObjTablesVersion='0.0.8'</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.1" r="2" s="14">
+          <t>!!ObjTables type='Data' id='ObservationSet' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1" s="14">
       <c r="A2" s="5" t="inlineStr">
         <is>
           <t>!Id</t>
@@ -3367,16 +3367,16 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="3" s="14"/>
-    <row customHeight="1" ht="15.1" r="4" s="14"/>
-    <row customHeight="1" ht="15.1" r="5" s="14"/>
-    <row customHeight="1" ht="15.1" r="6" s="14"/>
-    <row customHeight="1" ht="15.1" r="7" s="14"/>
-    <row customHeight="1" ht="15.1" r="8" s="14"/>
-    <row customHeight="1" ht="15.1" r="9" s="14"/>
+    <row r="3" ht="15.1" customHeight="1" s="14"/>
+    <row r="4" ht="15.1" customHeight="1" s="14"/>
+    <row r="5" ht="15.1" customHeight="1" s="14"/>
+    <row r="6" ht="15.1" customHeight="1" s="14"/>
+    <row r="7" ht="15.1" customHeight="1" s="14"/>
+    <row r="8" ht="15.1" customHeight="1" s="14"/>
+    <row r="9" ht="15.1" customHeight="1" s="14"/>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
@@ -3397,36 +3397,36 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="2"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="N2" pane="bottomRight" sqref="N2"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="26" width="15.125"/>
-    <col customWidth="1" max="2" min="2" style="26" width="14.75"/>
-    <col customWidth="1" max="1023" min="3" style="26" width="9.108333333333331"/>
-    <col customWidth="1" max="1024" min="1024" style="14" width="9.108333333333331"/>
+    <col width="15.125" customWidth="1" style="26" min="1" max="1"/>
+    <col width="14.75" customWidth="1" style="26" min="2" max="2"/>
+    <col width="9.108333333333331" customWidth="1" style="26" min="3" max="1023"/>
+    <col width="9.108333333333331" customWidth="1" style="14" min="1024" max="1024"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Conclusion' ObjTablesVersion='0.0.8'</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.1" r="2" s="14">
+          <t>!!ObjTables type='Data' id='Conclusion' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1" s="14">
       <c r="G2" s="7" t="inlineStr">
         <is>
           <t>!Process</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="3" s="14">
+    <row r="3" ht="15.1" customHeight="1" s="14">
       <c r="A3" s="5" t="inlineStr">
         <is>
           <t>!Id</t>
@@ -3498,31 +3498,31 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="4" s="14">
+    <row r="4" ht="15.1" customHeight="1" s="14">
       <c r="C4" s="6" t="n"/>
       <c r="D4" s="6" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="5" s="14">
+    <row r="5" ht="15.1" customHeight="1" s="14">
       <c r="C5" s="6" t="n"/>
       <c r="D5" s="6" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="6" s="14">
+    <row r="6" ht="15.1" customHeight="1" s="14">
       <c r="C6" s="6" t="n"/>
       <c r="D6" s="6" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="7" s="14">
+    <row r="7" ht="15.1" customHeight="1" s="14">
       <c r="C7" s="6" t="n"/>
       <c r="D7" s="6" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="8" s="14">
+    <row r="8" ht="15.1" customHeight="1" s="14">
       <c r="C8" s="6" t="n"/>
       <c r="D8" s="6" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="9" s="14">
+    <row r="9" ht="15.1" customHeight="1" s="14">
       <c r="C9" s="6" t="n"/>
       <c r="D9" s="6" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="10" s="14">
+    <row r="10" ht="15.1" customHeight="1" s="14">
       <c r="C10" s="6" t="n"/>
       <c r="D10" s="6" t="n"/>
     </row>
@@ -3534,8 +3534,8 @@
   <mergeCells count="1">
     <mergeCell ref="G2:H2"/>
   </mergeCells>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
@@ -3556,28 +3556,28 @@
   <dimension ref="A1:AMJ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="L26" pane="bottomRight" sqref="L26"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="26" width="8.358333333333331"/>
-    <col customWidth="1" max="2" min="2" style="26" width="16.175"/>
-    <col customWidth="1" max="3" min="3" style="26" width="15.8583333333333"/>
-    <col customWidth="1" max="4" min="4" style="26" width="31.6"/>
-    <col customWidth="1" max="1023" min="5" style="26" width="8.78333333333333"/>
-    <col customWidth="1" max="1025" min="1024" style="4" width="8.78333333333333"/>
-    <col customWidth="1" max="16384" min="1026" style="4" width="9"/>
+    <col width="8.358333333333331" customWidth="1" style="26" min="1" max="1"/>
+    <col width="16.175" customWidth="1" style="26" min="2" max="2"/>
+    <col width="15.8583333333333" customWidth="1" style="26" min="3" max="3"/>
+    <col width="31.6" customWidth="1" style="26" min="4" max="4"/>
+    <col width="8.78333333333333" customWidth="1" style="26" min="5" max="1023"/>
+    <col width="8.78333333333333" customWidth="1" style="4" min="1024" max="1025"/>
+    <col width="9" customWidth="1" style="4" min="1026" max="16384"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="3">
+    <row r="1" customFormat="1" s="3">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Reference' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='Reference' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -3676,8 +3676,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:D1"/>
-  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -3690,22 +3690,22 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="C2" xSplit="2" ySplit="1"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="L8" pane="bottomRight" sqref="L8"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" max="16384" min="1" style="26" width="9"/>
+    <col width="9" customWidth="1" style="26" min="1" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" s="14">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Author' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='Author' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -3772,7 +3772,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -3785,22 +3785,22 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="I10" pane="bottomRight" sqref="I10"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" max="16384" min="1" style="26" width="9"/>
+    <col width="9" customWidth="1" style="26" min="1" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" s="14">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Change' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='Change' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -3892,7 +3892,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -3905,21 +3905,21 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="B2" pane="bottomLeft" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="26" width="10.6"/>
-    <col customWidth="1" max="16384" min="1026" style="26" width="9"/>
+    <col width="10.6" customWidth="1" style="26" min="1" max="1025"/>
+    <col width="9" customWidth="1" style="26" min="1026" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" s="14">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Taxon' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='Taxon' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
     </row>
@@ -3986,8 +3986,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -4000,23 +4000,23 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="B5" pane="topRight" sqref="$A5:$XFD6"/>
+      <selection pane="topRight" activeCell="B5" sqref="$A5:$XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="6"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="26" width="18.5"/>
-    <col customWidth="1" max="2" min="2" style="26" width="5.375"/>
-    <col customWidth="1" max="1015" min="3" style="26" width="8.78333333333333"/>
-    <col customWidth="1" max="16384" min="1016" style="25" width="9"/>
+    <col width="18.5" customWidth="1" style="26" min="1" max="1"/>
+    <col width="5.375" customWidth="1" style="26" min="2" max="2"/>
+    <col width="8.78333333333333" customWidth="1" style="26" min="3" max="1015"/>
+    <col width="9" customWidth="1" style="25" min="1016" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" s="14">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Environment' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='Environment' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
     </row>
@@ -4083,7 +4083,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -4096,34 +4096,34 @@
   <dimension ref="A1:AMK4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="C1" pane="bottomRight" sqref="C1"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="26" width="10.3916666666667"/>
-    <col customWidth="1" max="2" min="2" style="26" width="13.8166666666667"/>
-    <col customWidth="1" max="3" min="3" style="26" width="16.175"/>
-    <col customWidth="1" max="6" min="4" style="26" width="9.31666666666667"/>
-    <col customWidth="1" max="7" min="7" style="26" width="9.425000000000001"/>
-    <col customWidth="1" max="8" min="8" style="4" width="12.9583333333333"/>
-    <col customWidth="1" max="1022" min="9" style="26" width="8.78333333333333"/>
-    <col customWidth="1" max="1026" min="1023" style="4" width="8.78333333333333"/>
-    <col customWidth="1" max="16384" min="1027" style="4" width="9"/>
+    <col width="10.3916666666667" customWidth="1" style="26" min="1" max="1"/>
+    <col width="13.8166666666667" customWidth="1" style="26" min="2" max="2"/>
+    <col width="16.175" customWidth="1" style="26" min="3" max="3"/>
+    <col width="9.31666666666667" customWidth="1" style="26" min="4" max="6"/>
+    <col width="9.425000000000001" customWidth="1" style="26" min="7" max="7"/>
+    <col width="12.9583333333333" customWidth="1" style="4" min="8" max="8"/>
+    <col width="8.78333333333333" customWidth="1" style="26" min="9" max="1022"/>
+    <col width="8.78333333333333" customWidth="1" style="4" min="1023" max="1026"/>
+    <col width="9" customWidth="1" style="4" min="1027" max="16384"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="15" r="1" s="3">
+    <row r="1" ht="15" customFormat="1" customHeight="1" s="3">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Submodel' ObjTablesVersion='0.0.8'</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="2" s="14">
+          <t>!!ObjTables type='Data' id='Submodel' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="14">
       <c r="A2" s="23" t="inlineStr">
         <is>
           <t>!Id</t>
@@ -4168,7 +4168,7 @@
       <c r="AMJ2" s="4" t="n"/>
       <c r="AMK2" s="4" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="3" s="14">
+    <row r="3" ht="15" customHeight="1" s="14">
       <c r="A3" s="26" t="inlineStr">
         <is>
           <t>dfba_submodel</t>
@@ -4204,8 +4204,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -4218,33 +4218,33 @@
   <dimension ref="A1:AMR5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="2"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="M1" pane="bottomRight" sqref="M1:P4"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="M1" sqref="M1:P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="3"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="16" width="5.14166666666667"/>
-    <col customWidth="1" max="3" min="2" style="16" width="17.5666666666667"/>
-    <col customWidth="1" max="5" min="4" style="16" width="13.2833333333333"/>
-    <col customWidth="1" max="7" min="6" style="16" width="8.375"/>
-    <col customWidth="1" max="8" min="8" style="16" width="10.8166666666667"/>
-    <col customWidth="1" max="1033" min="9" style="16" width="8.78333333333333"/>
-    <col customWidth="1" max="1035" min="1034" style="14" width="8.78333333333333"/>
-    <col customWidth="1" max="16384" min="1036" style="14" width="9"/>
+    <col width="5.14166666666667" customWidth="1" style="16" min="1" max="1"/>
+    <col width="17.5666666666667" customWidth="1" style="16" min="2" max="3"/>
+    <col width="13.2833333333333" customWidth="1" style="16" min="4" max="5"/>
+    <col width="8.375" customWidth="1" style="16" min="6" max="7"/>
+    <col width="10.8166666666667" customWidth="1" style="16" min="8" max="8"/>
+    <col width="8.78333333333333" customWidth="1" style="16" min="9" max="1033"/>
+    <col width="8.78333333333333" customWidth="1" style="14" min="1034" max="1035"/>
+    <col width="9" customWidth="1" style="14" min="1036" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" s="14">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Compartment' ObjTablesVersion='0.0.8'</t>
-        </is>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15.1" r="2" s="15">
+          <t>!!ObjTables type='Data' id='Compartment' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customFormat="1" customHeight="1" s="15">
       <c r="A2" s="15" t="n"/>
       <c r="B2" s="15" t="n"/>
       <c r="C2" s="15" t="n"/>
@@ -5547,8 +5547,8 @@
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="M2:P2"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -5561,36 +5561,36 @@
   <dimension ref="A1:AMM13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="2"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="F3" pane="bottomRight" sqref="F3:F8"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="26" width="8.78333333333333"/>
-    <col customWidth="1" max="2" min="2" style="26" width="15"/>
-    <col customWidth="1" max="5" min="3" style="26" width="11.4583333333333"/>
-    <col customWidth="1" max="6" min="6" style="26" width="10.5"/>
-    <col customWidth="1" max="7" min="7" style="26" width="10.2833333333333"/>
-    <col customWidth="1" max="8" min="8" style="26" width="9.425000000000001"/>
-    <col customWidth="1" max="10" min="9" style="26" width="18.8583333333333"/>
-    <col customWidth="1" max="12" min="11" style="26" width="10.5"/>
-    <col customWidth="1" max="1026" min="13" style="26" width="8.78333333333333"/>
-    <col customWidth="1" max="1028" min="1027" style="4" width="8.78333333333333"/>
-    <col customWidth="1" max="16384" min="1029" style="4" width="9"/>
+    <col width="8.78333333333333" customWidth="1" style="26" min="1" max="1"/>
+    <col width="15" customWidth="1" style="26" min="2" max="2"/>
+    <col width="11.4583333333333" customWidth="1" style="26" min="3" max="5"/>
+    <col width="10.5" customWidth="1" style="26" min="6" max="6"/>
+    <col width="10.2833333333333" customWidth="1" style="26" min="7" max="7"/>
+    <col width="9.425000000000001" customWidth="1" style="26" min="8" max="8"/>
+    <col width="18.8583333333333" customWidth="1" style="26" min="9" max="10"/>
+    <col width="10.5" customWidth="1" style="26" min="11" max="12"/>
+    <col width="8.78333333333333" customWidth="1" style="26" min="13" max="1026"/>
+    <col width="8.78333333333333" customWidth="1" style="4" min="1027" max="1028"/>
+    <col width="9" customWidth="1" style="4" min="1029" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" s="14">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='SpeciesType' ObjTablesVersion='0.0.8'</t>
-        </is>
-      </c>
-    </row>
-    <row customFormat="1" r="2" s="3">
+          <t>!!ObjTables type='Data' id='SpeciesType' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" customFormat="1" s="3">
       <c r="C2" s="22" t="inlineStr">
         <is>
           <t>!Structure</t>
@@ -5830,8 +5830,8 @@
   <mergeCells count="1">
     <mergeCell ref="C2:H2"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -5844,24 +5844,24 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="H1" pane="bottomRight" sqref="H1"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" max="6" min="1" style="26" width="15.5333333333333"/>
-    <col customWidth="1" max="1026" min="7" style="26" width="9.108333333333331"/>
-    <col customWidth="1" max="16384" min="1027" style="26" width="9"/>
+    <col width="15.5333333333333" customWidth="1" style="26" min="1" max="6"/>
+    <col width="9.108333333333331" customWidth="1" style="26" min="7" max="1026"/>
+    <col width="9" customWidth="1" style="26" min="1027" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" s="14">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Species' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='Species' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -6094,8 +6094,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
@@ -6116,34 +6116,34 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="D2" pane="bottomRight" sqref="D2:D7"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="6"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="26" width="21"/>
-    <col customWidth="1" max="2" min="2" style="26" width="15.3166666666667"/>
-    <col customWidth="1" max="3" min="3" style="26" width="10"/>
-    <col customWidth="1" max="4" min="4" style="26" width="9.31666666666667"/>
-    <col customWidth="1" max="5" min="5" style="26" width="9.75"/>
-    <col customWidth="1" max="6" min="6" style="26" width="10.5"/>
-    <col customWidth="1" max="7" min="7" style="26" width="10.2833333333333"/>
-    <col customWidth="1" max="8" min="8" style="26" width="9.425000000000001"/>
-    <col customWidth="1" max="11" min="9" style="26" width="18.8583333333333"/>
-    <col customWidth="1" max="13" min="12" style="26" width="10.5"/>
-    <col customWidth="1" max="14" min="14" style="26" width="23.35"/>
-    <col customWidth="1" max="1026" min="15" style="26" width="8.78333333333333"/>
-    <col customWidth="1" max="16384" min="1027" style="4" width="9"/>
+    <col width="21" customWidth="1" style="26" min="1" max="1"/>
+    <col width="15.3166666666667" customWidth="1" style="26" min="2" max="2"/>
+    <col width="10" customWidth="1" style="26" min="3" max="3"/>
+    <col width="9.31666666666667" customWidth="1" style="26" min="4" max="4"/>
+    <col width="9.75" customWidth="1" style="26" min="5" max="5"/>
+    <col width="10.5" customWidth="1" style="26" min="6" max="6"/>
+    <col width="10.2833333333333" customWidth="1" style="26" min="7" max="7"/>
+    <col width="9.425000000000001" customWidth="1" style="26" min="8" max="8"/>
+    <col width="18.8583333333333" customWidth="1" style="26" min="9" max="11"/>
+    <col width="10.5" customWidth="1" style="26" min="12" max="13"/>
+    <col width="23.35" customWidth="1" style="26" min="14" max="14"/>
+    <col width="8.78333333333333" customWidth="1" style="26" min="15" max="1026"/>
+    <col width="9" customWidth="1" style="4" min="1027" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" s="14">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='DistributionInitConcentration' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='DistributionInitConcentration' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -6360,7 +6360,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/tests/fixtures/test_new_features_model.xlsx
+++ b/tests/fixtures/test_new_features_model.xlsx
@@ -1475,7 +1475,7 @@
     <row r="1" s="14">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Observable' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Observable' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -1567,7 +1567,7 @@
     <row r="1" s="14">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Function' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Function' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -1700,7 +1700,7 @@
     <row r="1" s="14">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Reaction' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Reaction' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -1982,7 +1982,7 @@
     <row r="1" s="14">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='RateLaw' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='RateLaw' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -2215,7 +2215,7 @@
     <row r="1" s="14">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjective' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjective' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -2345,7 +2345,7 @@
     <row r="1" s="14">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjReaction' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjReaction' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -2477,7 +2477,7 @@
     <row r="1" s="14">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjSpecies' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjSpecies' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -2613,7 +2613,7 @@
     <row r="1" customFormat="1" s="3">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Parameter' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Parameter' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -2896,7 +2896,7 @@
     <row r="1" s="14">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='StopCondition' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='StopCondition' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -2985,7 +2985,7 @@
     <row r="1" s="14">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Observation' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Observation' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -3164,7 +3164,7 @@
     <row r="1" s="14">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Model' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Model' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
     </row>
@@ -3331,7 +3331,7 @@
     <row r="1" ht="15.1" customHeight="1" s="14">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='ObservationSet' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='ObservationSet' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -3415,7 +3415,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Conclusion' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Conclusion' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -3577,7 +3577,7 @@
     <row r="1" customFormat="1" s="3">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Reference' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Reference' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -3705,7 +3705,7 @@
     <row r="1" s="14">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Author' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Author' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -3800,7 +3800,7 @@
     <row r="1" s="14">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Change' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Change' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -3919,7 +3919,7 @@
     <row r="1" s="14">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Taxon' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Taxon' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
     </row>
@@ -4016,7 +4016,7 @@
     <row r="1" s="14">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Environment' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Environment' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
     </row>
@@ -4119,7 +4119,7 @@
     <row r="1" ht="15" customFormat="1" customHeight="1" s="3">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Submodel' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Submodel' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -4240,7 +4240,7 @@
     <row r="1" s="14">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Compartment' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Compartment' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -5586,7 +5586,7 @@
     <row r="1" s="14">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='SpeciesType' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='SpeciesType' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -5861,7 +5861,7 @@
     <row r="1" s="14">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Species' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Species' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -6143,7 +6143,7 @@
     <row r="1" s="14">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DistributionInitConcentration' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DistributionInitConcentration' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
